--- a/results-partial/HW_C017_120.xlsx
+++ b/results-partial/HW_C017_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.62255115134589</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30.76735845058753</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.77399159234715</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.05289067252298</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.77399159234715</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.88914059854845</v>
-      </c>
-      <c r="H2" t="n">
-        <v>29.93256963034784</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29.69357783335708</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.60707422963498</v>
+        <v>27.62255115134589</v>
       </c>
       <c r="C3" t="n">
-        <v>30.76026859722706</v>
+        <v>30.76735845058753</v>
       </c>
       <c r="D3" t="n">
-        <v>29.74713677607507</v>
+        <v>29.77399159234715</v>
       </c>
       <c r="E3" t="n">
-        <v>30.02318108983179</v>
+        <v>30.05289067252298</v>
       </c>
       <c r="F3" t="n">
-        <v>29.74716426150845</v>
+        <v>29.77399159234715</v>
       </c>
       <c r="G3" t="n">
-        <v>27.87412907484164</v>
+        <v>28.77718410961844</v>
       </c>
       <c r="H3" t="n">
-        <v>29.94122657403026</v>
+        <v>29.93256963034784</v>
       </c>
       <c r="I3" t="n">
-        <v>29.7012518228316</v>
+        <v>29.69357783335708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.62306503157641</v>
+        <v>27.60707422963498</v>
       </c>
       <c r="C4" t="n">
-        <v>30.77536688080123</v>
+        <v>30.76026859722706</v>
       </c>
       <c r="D4" t="n">
-        <v>29.81481172151698</v>
+        <v>29.74713677607507</v>
       </c>
       <c r="E4" t="n">
-        <v>30.07095612338367</v>
+        <v>30.02318108983179</v>
       </c>
       <c r="F4" t="n">
-        <v>29.81481172151698</v>
+        <v>29.74716426150845</v>
       </c>
       <c r="G4" t="n">
-        <v>27.89858066087504</v>
+        <v>28.75892777810766</v>
       </c>
       <c r="H4" t="n">
-        <v>29.97416284828283</v>
+        <v>29.94122657403026</v>
       </c>
       <c r="I4" t="n">
-        <v>29.71273477218701</v>
+        <v>29.7012518228316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.60616732129732</v>
+        <v>27.62306503157641</v>
       </c>
       <c r="C5" t="n">
-        <v>30.76543858127036</v>
+        <v>30.77536688080123</v>
       </c>
       <c r="D5" t="n">
-        <v>29.78351790854132</v>
+        <v>29.81481172151698</v>
       </c>
       <c r="E5" t="n">
-        <v>30.06227646612243</v>
+        <v>30.07095612338367</v>
       </c>
       <c r="F5" t="n">
-        <v>29.78351790854132</v>
+        <v>29.81481172151698</v>
       </c>
       <c r="G5" t="n">
-        <v>27.87997186758708</v>
+        <v>28.78907762562759</v>
       </c>
       <c r="H5" t="n">
-        <v>29.95164715338845</v>
+        <v>29.97416284828283</v>
       </c>
       <c r="I5" t="n">
-        <v>29.69022791072327</v>
+        <v>29.71273477218701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.60213676552733</v>
+        <v>27.60616732129732</v>
       </c>
       <c r="C6" t="n">
-        <v>30.76538723732704</v>
+        <v>30.76543858127036</v>
       </c>
       <c r="D6" t="n">
-        <v>29.7858477586188</v>
+        <v>29.78351790854132</v>
       </c>
       <c r="E6" t="n">
-        <v>30.05758742289161</v>
+        <v>30.06227646612243</v>
       </c>
       <c r="F6" t="n">
-        <v>29.7858477586188</v>
+        <v>29.78351790854132</v>
       </c>
       <c r="G6" t="n">
-        <v>27.8709379015939</v>
+        <v>28.76132411448269</v>
       </c>
       <c r="H6" t="n">
-        <v>29.97624006148319</v>
+        <v>29.95164715338845</v>
       </c>
       <c r="I6" t="n">
-        <v>29.72414737071618</v>
+        <v>29.69022791072327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.63458644029293</v>
+        <v>27.60213676552733</v>
       </c>
       <c r="C7" t="n">
-        <v>30.77280052919592</v>
+        <v>30.76538723732704</v>
       </c>
       <c r="D7" t="n">
-        <v>29.80242342679169</v>
+        <v>29.7858477586188</v>
       </c>
       <c r="E7" t="n">
-        <v>30.06521807777397</v>
+        <v>30.05758742289161</v>
       </c>
       <c r="F7" t="n">
-        <v>29.80242342679169</v>
+        <v>29.7858477586188</v>
       </c>
       <c r="G7" t="n">
-        <v>27.91180636759166</v>
+        <v>28.77193918149295</v>
       </c>
       <c r="H7" t="n">
-        <v>29.97546539490484</v>
+        <v>29.97624006148319</v>
       </c>
       <c r="I7" t="n">
-        <v>29.72584504152548</v>
+        <v>29.72414737071618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.59956342976039</v>
+        <v>27.63458644029293</v>
       </c>
       <c r="C8" t="n">
-        <v>30.79109819161889</v>
+        <v>30.77280052919592</v>
       </c>
       <c r="D8" t="n">
-        <v>29.78820039376907</v>
+        <v>29.80242342679169</v>
       </c>
       <c r="E8" t="n">
-        <v>30.06870324306075</v>
+        <v>30.06521807777397</v>
       </c>
       <c r="F8" t="n">
-        <v>29.78820039376907</v>
+        <v>29.80242342679169</v>
       </c>
       <c r="G8" t="n">
-        <v>27.86371181811762</v>
+        <v>28.78545302420126</v>
       </c>
       <c r="H8" t="n">
-        <v>29.96223137930503</v>
+        <v>29.97546539490484</v>
       </c>
       <c r="I8" t="n">
-        <v>29.70886457573662</v>
+        <v>29.72584504152548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6303883290899</v>
+        <v>27.59956342976039</v>
       </c>
       <c r="C9" t="n">
-        <v>30.78882312322679</v>
+        <v>30.79109819161889</v>
       </c>
       <c r="D9" t="n">
-        <v>29.82127598157468</v>
+        <v>29.78820039376907</v>
       </c>
       <c r="E9" t="n">
-        <v>30.09094955784278</v>
+        <v>30.06870324306075</v>
       </c>
       <c r="F9" t="n">
-        <v>29.82127598157468</v>
+        <v>29.78820039376907</v>
       </c>
       <c r="G9" t="n">
-        <v>27.90044274235441</v>
+        <v>28.76976970695183</v>
       </c>
       <c r="H9" t="n">
-        <v>29.97985750529905</v>
+        <v>29.96223137930503</v>
       </c>
       <c r="I9" t="n">
-        <v>29.69945945751915</v>
+        <v>29.70886457573662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.58007418012268</v>
+        <v>27.6303883290899</v>
       </c>
       <c r="C10" t="n">
-        <v>30.77304574420392</v>
+        <v>30.78882312322679</v>
       </c>
       <c r="D10" t="n">
-        <v>29.76488277655414</v>
+        <v>29.82127598157468</v>
       </c>
       <c r="E10" t="n">
-        <v>30.02537920088374</v>
+        <v>30.09094955784278</v>
       </c>
       <c r="F10" t="n">
-        <v>29.76479504087766</v>
+        <v>29.82127598157468</v>
       </c>
       <c r="G10" t="n">
-        <v>27.84594098476851</v>
+        <v>28.8134814319892</v>
       </c>
       <c r="H10" t="n">
-        <v>29.96640279206242</v>
+        <v>29.97985750529905</v>
       </c>
       <c r="I10" t="n">
-        <v>29.70921002148164</v>
+        <v>29.69945945751915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.58007418012268</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.77304574420392</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.76488277655414</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.02537920088374</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.76479504087766</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.77370760598105</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.96640279206242</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.70921002148164</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>27.64660357968289</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>30.80402248652359</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>29.83428491931551</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>30.09160476655627</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>29.83428491931551</v>
       </c>
-      <c r="G11" t="n">
-        <v>27.92075126622083</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>28.79173526410845</v>
+      </c>
+      <c r="H12" t="n">
         <v>29.97885263396768</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>29.7246117715103</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.61522104583307</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30.77636098219823</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.79163732551044</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.060874662087</v>
-      </c>
-      <c r="F12" t="n">
-        <v>29.79163130048613</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.88554132824992</v>
-      </c>
-      <c r="H12" t="n">
-        <v>29.96386559730716</v>
-      </c>
-      <c r="I12" t="n">
-        <v>29.70899305775883</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.161139936365164</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.176416279677373</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.445653616253935</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2.176410254653064</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2703202824168507</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.348644551474091</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.093772011925765</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8305902751118793</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9062565350924694</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8897157957271981</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8959081082796378</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8897157957271981</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8543301630331529</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8871595590969361</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8813601726704001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.830227475828663</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9057351065952738</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8896275426607947</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8955572539062945</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8896275423657044</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8575955413198675</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8873715034139151</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.879145765501219</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8308471195951447</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9075360660760583</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8913018665412222</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8970222934338667</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8913018665412222</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8581363097087537</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8887045520796186</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8811566507261154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8302880294260931</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9058619947722073</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8905576628417237</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8970181724511302</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8905576628417237</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8578589184718282</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8882757154921193</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8816440193771035</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8302779918152422</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9074916597149152</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8908563333729089</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8958000911591939</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8908563333729089</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8573970370158264</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8878574668014373</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8810389955858651</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8313104689598801</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9061721033188755</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8907096216118242</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8955198974464366</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8907096216118242</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8581178517644764</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8888252891058839</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8799325629567185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8299253616485002</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9053788188702694</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8901087902247271</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8941949366339409</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8901087902247271</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8565833364193948</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8863806299777659</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8799758742842003</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8309715764424884</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9057510745483978</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.891152670898878</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8964233133780314</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.891152670898878</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8579024984545606</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8870452267302416</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8787230613460152</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.82896913420984</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9062235113566001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8896876761344193</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8961048079047859</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8896859769526813</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8559580003375677</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8867998562577014</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8797797709375478</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8312960374597114</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9064907309988067</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8912045571671656</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8957925338934689</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8912045571671656</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8557795458418818</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8872317428562794</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8807963885827679</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.73626406716477</v>
-      </c>
-      <c r="C2" t="n">
-        <v>28.4332086264889</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.56723733530504</v>
-      </c>
-      <c r="E2" t="n">
-        <v>27.69470899504869</v>
-      </c>
-      <c r="F2" t="n">
-        <v>27.56723733530504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.82254138632239</v>
-      </c>
-      <c r="H2" t="n">
-        <v>26.77869325068998</v>
-      </c>
-      <c r="I2" t="n">
-        <v>25.15404339271227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.71376546007914</v>
+        <v>19.73626406716477</v>
       </c>
       <c r="C3" t="n">
-        <v>28.40128340321895</v>
+        <v>28.4332086264889</v>
       </c>
       <c r="D3" t="n">
-        <v>27.49323215233342</v>
+        <v>27.56723733530504</v>
       </c>
       <c r="E3" t="n">
-        <v>27.63001126998195</v>
+        <v>27.69470899504869</v>
       </c>
       <c r="F3" t="n">
-        <v>27.49323215233342</v>
+        <v>27.56723733530504</v>
       </c>
       <c r="G3" t="n">
-        <v>20.7980151014859</v>
+        <v>23.88712516295411</v>
       </c>
       <c r="H3" t="n">
-        <v>26.7432427556712</v>
+        <v>26.77869325068998</v>
       </c>
       <c r="I3" t="n">
-        <v>25.12498745514058</v>
+        <v>25.15404339271227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.73180231998506</v>
+        <v>19.71376546007914</v>
       </c>
       <c r="C4" t="n">
-        <v>28.42039682096138</v>
+        <v>28.40128340321895</v>
       </c>
       <c r="D4" t="n">
-        <v>27.51946539495325</v>
+        <v>27.49323215233342</v>
       </c>
       <c r="E4" t="n">
-        <v>27.68163168856887</v>
+        <v>27.63001126998195</v>
       </c>
       <c r="F4" t="n">
-        <v>27.51946539495325</v>
+        <v>27.49323215233342</v>
       </c>
       <c r="G4" t="n">
-        <v>20.8311934642804</v>
+        <v>23.8570858470468</v>
       </c>
       <c r="H4" t="n">
-        <v>26.79282029396019</v>
+        <v>26.7432427556712</v>
       </c>
       <c r="I4" t="n">
-        <v>25.19778215369679</v>
+        <v>25.12498745514058</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.68864522651385</v>
+        <v>19.73180231998506</v>
       </c>
       <c r="C5" t="n">
-        <v>28.41057153191355</v>
+        <v>28.42039682096138</v>
       </c>
       <c r="D5" t="n">
-        <v>27.48654669009088</v>
+        <v>27.51946539495325</v>
       </c>
       <c r="E5" t="n">
-        <v>27.63946424751488</v>
+        <v>27.68163168856887</v>
       </c>
       <c r="F5" t="n">
-        <v>27.48654669009088</v>
+        <v>27.51946539495325</v>
       </c>
       <c r="G5" t="n">
-        <v>20.77123415542581</v>
+        <v>23.92000045110519</v>
       </c>
       <c r="H5" t="n">
-        <v>26.76271522637571</v>
+        <v>26.79282029396019</v>
       </c>
       <c r="I5" t="n">
-        <v>25.1670983103959</v>
+        <v>25.19778215369679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.71758351508478</v>
+        <v>19.68864522651385</v>
       </c>
       <c r="C6" t="n">
-        <v>28.47960304811245</v>
+        <v>28.41057153191355</v>
       </c>
       <c r="D6" t="n">
-        <v>27.55491523203852</v>
+        <v>27.48654669009088</v>
       </c>
       <c r="E6" t="n">
-        <v>27.71130757760148</v>
+        <v>27.63946424751488</v>
       </c>
       <c r="F6" t="n">
-        <v>27.55491523203852</v>
+        <v>27.48654669009088</v>
       </c>
       <c r="G6" t="n">
-        <v>20.79974890058232</v>
+        <v>23.9049715689108</v>
       </c>
       <c r="H6" t="n">
-        <v>26.80726110502393</v>
+        <v>26.76271522637571</v>
       </c>
       <c r="I6" t="n">
-        <v>25.19844555747287</v>
+        <v>25.1670983103959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.69758103777424</v>
+        <v>19.71758351508478</v>
       </c>
       <c r="C7" t="n">
-        <v>28.3796540081187</v>
+        <v>28.47960304811245</v>
       </c>
       <c r="D7" t="n">
-        <v>27.47206344668095</v>
+        <v>27.55491523203852</v>
       </c>
       <c r="E7" t="n">
-        <v>27.606582661309</v>
+        <v>27.71130757760148</v>
       </c>
       <c r="F7" t="n">
-        <v>27.47207863115857</v>
+        <v>27.55491523203852</v>
       </c>
       <c r="G7" t="n">
-        <v>20.78106218001326</v>
+        <v>23.91627653286775</v>
       </c>
       <c r="H7" t="n">
-        <v>26.71545803224972</v>
+        <v>26.80726110502393</v>
       </c>
       <c r="I7" t="n">
-        <v>25.12385220514542</v>
+        <v>25.19844555747287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.7008796529013</v>
+        <v>19.69758103777424</v>
       </c>
       <c r="C8" t="n">
-        <v>28.42480783999807</v>
+        <v>28.3796540081187</v>
       </c>
       <c r="D8" t="n">
-        <v>27.55105601519272</v>
+        <v>27.47206344668095</v>
       </c>
       <c r="E8" t="n">
-        <v>27.67264083367147</v>
+        <v>27.606582661309</v>
       </c>
       <c r="F8" t="n">
-        <v>27.55105601519272</v>
+        <v>27.47207863115857</v>
       </c>
       <c r="G8" t="n">
-        <v>20.7938681127947</v>
+        <v>23.85422674127748</v>
       </c>
       <c r="H8" t="n">
-        <v>26.7691591662143</v>
+        <v>26.71545803224972</v>
       </c>
       <c r="I8" t="n">
-        <v>25.15934179973322</v>
+        <v>25.12385220514542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.70283581960065</v>
+        <v>19.7008796529013</v>
       </c>
       <c r="C9" t="n">
-        <v>28.42438656308587</v>
+        <v>28.42480783999807</v>
       </c>
       <c r="D9" t="n">
-        <v>27.52696971676139</v>
+        <v>27.55105601519272</v>
       </c>
       <c r="E9" t="n">
-        <v>27.69833345026763</v>
+        <v>27.67264083367147</v>
       </c>
       <c r="F9" t="n">
-        <v>27.52696971676139</v>
+        <v>27.55105601519272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.79525961092893</v>
+        <v>23.86580271733648</v>
       </c>
       <c r="H9" t="n">
-        <v>26.81484375085085</v>
+        <v>26.7691591662143</v>
       </c>
       <c r="I9" t="n">
-        <v>25.21450845676011</v>
+        <v>25.15934179973322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7153506279143</v>
+        <v>19.70283581960065</v>
       </c>
       <c r="C10" t="n">
-        <v>28.42307610106887</v>
+        <v>28.42438656308587</v>
       </c>
       <c r="D10" t="n">
-        <v>27.49828594730445</v>
+        <v>27.52696971676139</v>
       </c>
       <c r="E10" t="n">
-        <v>27.64396218918493</v>
+        <v>27.69833345026763</v>
       </c>
       <c r="F10" t="n">
-        <v>27.49828594730445</v>
+        <v>27.52696971676139</v>
       </c>
       <c r="G10" t="n">
-        <v>20.80057334340134</v>
+        <v>23.90831352457019</v>
       </c>
       <c r="H10" t="n">
-        <v>26.77506201169315</v>
+        <v>26.81484375085085</v>
       </c>
       <c r="I10" t="n">
-        <v>25.18276889173693</v>
+        <v>25.21450845676011</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.7153506279143</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.42307610106887</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.49828594730445</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27.64396218918493</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27.49828594730445</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.90629927748713</v>
+      </c>
+      <c r="H11" t="n">
+        <v>26.77506201169315</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25.18276889173693</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.70090055591832</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>28.42453979121609</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>27.51936334208867</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>27.63690744088357</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>27.51936334208867</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.79908360517375</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>23.89728945626303</v>
+      </c>
+      <c r="H12" t="n">
         <v>26.79691322174576</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>25.20275032077866</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.71056082829364</v>
-      </c>
-      <c r="C12" t="n">
-        <v>28.42215277341828</v>
-      </c>
-      <c r="D12" t="n">
-        <v>27.51891352727493</v>
-      </c>
-      <c r="E12" t="n">
-        <v>27.66155503540325</v>
-      </c>
-      <c r="F12" t="n">
-        <v>27.51891504572269</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.79925798604088</v>
-      </c>
-      <c r="H12" t="n">
-        <v>26.77561688144748</v>
-      </c>
-      <c r="I12" t="n">
-        <v>25.17255785435727</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.711591945124638</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.808352698981285</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.950994207109602</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7.808354217429049</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.088697157747237</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7.065056053153835</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.461997026063628</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5324544187872847</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8404635275351721</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.817053483580769</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8149746529569268</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.817053483580769</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6925041882392782</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7677827983471336</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6925530322601658</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5310986741311331</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8396202711933373</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8142664469909999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8139230252757906</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8142664469909999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.691159614951983</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7645179510388046</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6896301050319287</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.53327767157355</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8413742065012108</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8172055616236176</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8173341885085059</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8172055616236176</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6939089393473176</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7681010216282161</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6919105827174484</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5310944736268981</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.841128276400834</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8140417429220449</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8146616772232363</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8140417429220449</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6947674188650591</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7698097698510697</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6963763906307937</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.533054272341711</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8410975360100181</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.817565321847927</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8157669384096056</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.817565321847927</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6935304163287599</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7711328001541684</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6956093135681617</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5316862841314814</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8394646403041729</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8157068822734781</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8155389206724294</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8157089595792862</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6905570278142094</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7686053613285968</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6935746828439436</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5311533285288489</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8399675068841347</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8153453413735934</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8149655734247234</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8153453413735934</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6897711835916412</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7729170453389095</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6943833945631125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5322428105929953</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8427137032517967</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8173126439301805</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8160257547330235</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8173126439301805</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6924320688596549</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7693021404433724</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6922944978136827</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5321705108907698</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8412326393202698</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8163450423759611</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8153343004554828</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8163450423759611</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6893255340395306</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7686113700282181</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6949514521473985</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5313909727279635</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8423938260056583</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8163759254516584</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8153022607540336</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8163759254516584</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6942081266216825</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7730078596921833</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6963013326863983</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.70839733236271</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25.20966535822371</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.97844358096096</v>
-      </c>
-      <c r="E2" t="n">
-        <v>23.9837179617174</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23.97844358096096</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.42971033334748</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21.40486654949476</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19.38164457769648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.71576074376576</v>
+        <v>14.70839733236271</v>
       </c>
       <c r="C3" t="n">
-        <v>25.17449895126052</v>
+        <v>25.20966535822371</v>
       </c>
       <c r="D3" t="n">
-        <v>23.92421193276167</v>
+        <v>23.97844358096096</v>
       </c>
       <c r="E3" t="n">
-        <v>23.93913527912468</v>
+        <v>23.9837179617174</v>
       </c>
       <c r="F3" t="n">
-        <v>23.92421193276167</v>
+        <v>23.97844358096096</v>
       </c>
       <c r="G3" t="n">
-        <v>17.42647291211114</v>
+        <v>19.92410334221425</v>
       </c>
       <c r="H3" t="n">
-        <v>21.36575608612224</v>
+        <v>21.40486654949476</v>
       </c>
       <c r="I3" t="n">
-        <v>19.36904132983518</v>
+        <v>19.38164457769648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.71438766487775</v>
+        <v>14.71576074376576</v>
       </c>
       <c r="C4" t="n">
-        <v>25.22952106154421</v>
+        <v>25.17449895126052</v>
       </c>
       <c r="D4" t="n">
-        <v>23.96704142305659</v>
+        <v>23.92421193276167</v>
       </c>
       <c r="E4" t="n">
-        <v>24.0092782352771</v>
+        <v>23.93913527912468</v>
       </c>
       <c r="F4" t="n">
-        <v>23.96704142305659</v>
+        <v>23.92421193276167</v>
       </c>
       <c r="G4" t="n">
-        <v>17.43251507860044</v>
+        <v>19.91417624382704</v>
       </c>
       <c r="H4" t="n">
-        <v>21.40588918474436</v>
+        <v>21.36575608612224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.38559921478277</v>
+        <v>19.36904132983518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.72559432362701</v>
+        <v>14.71438766487775</v>
       </c>
       <c r="C5" t="n">
-        <v>25.29426427357035</v>
+        <v>25.22952106154421</v>
       </c>
       <c r="D5" t="n">
-        <v>24.01719168432913</v>
+        <v>23.96704142305659</v>
       </c>
       <c r="E5" t="n">
-        <v>24.02336327823358</v>
+        <v>24.0092782352771</v>
       </c>
       <c r="F5" t="n">
-        <v>24.01721849527323</v>
+        <v>23.96704142305659</v>
       </c>
       <c r="G5" t="n">
-        <v>17.44857243786274</v>
+        <v>19.93564130818477</v>
       </c>
       <c r="H5" t="n">
-        <v>21.43752019339114</v>
+        <v>21.40588918474436</v>
       </c>
       <c r="I5" t="n">
-        <v>19.40094422710464</v>
+        <v>19.38559921478277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.72253718223117</v>
+        <v>14.72559432362701</v>
       </c>
       <c r="C6" t="n">
-        <v>25.1926994219505</v>
+        <v>25.29426427357035</v>
       </c>
       <c r="D6" t="n">
-        <v>23.96973125785954</v>
+        <v>24.01719168432913</v>
       </c>
       <c r="E6" t="n">
-        <v>23.97786575791184</v>
+        <v>24.02336327823358</v>
       </c>
       <c r="F6" t="n">
-        <v>23.96973125785954</v>
+        <v>24.01721849527323</v>
       </c>
       <c r="G6" t="n">
-        <v>17.44120745069303</v>
+        <v>19.94544101421527</v>
       </c>
       <c r="H6" t="n">
-        <v>21.39503518784375</v>
+        <v>21.43752019339114</v>
       </c>
       <c r="I6" t="n">
-        <v>19.38234878940462</v>
+        <v>19.40094422710464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.69908148781415</v>
+        <v>14.72253718223117</v>
       </c>
       <c r="C7" t="n">
-        <v>25.21469323182505</v>
+        <v>25.1926994219505</v>
       </c>
       <c r="D7" t="n">
-        <v>23.97764348441567</v>
+        <v>23.96973125785954</v>
       </c>
       <c r="E7" t="n">
-        <v>24.00194396735883</v>
+        <v>23.97786575791184</v>
       </c>
       <c r="F7" t="n">
-        <v>23.97765570889067</v>
+        <v>23.96973125785954</v>
       </c>
       <c r="G7" t="n">
-        <v>17.41296555835825</v>
+        <v>19.92683518468324</v>
       </c>
       <c r="H7" t="n">
-        <v>21.38167857046971</v>
+        <v>21.39503518784375</v>
       </c>
       <c r="I7" t="n">
-        <v>19.36654443244201</v>
+        <v>19.38234878940462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.70370540700552</v>
+        <v>14.69908148781415</v>
       </c>
       <c r="C8" t="n">
-        <v>25.13872621361425</v>
+        <v>25.21469323182505</v>
       </c>
       <c r="D8" t="n">
-        <v>23.89798996031815</v>
+        <v>23.97764348441567</v>
       </c>
       <c r="E8" t="n">
-        <v>23.93568445843095</v>
+        <v>24.00194396735883</v>
       </c>
       <c r="F8" t="n">
-        <v>23.89798996031815</v>
+        <v>23.97765570889067</v>
       </c>
       <c r="G8" t="n">
-        <v>17.41666281776322</v>
+        <v>19.91653218646395</v>
       </c>
       <c r="H8" t="n">
-        <v>21.33820974984896</v>
+        <v>21.38167857046971</v>
       </c>
       <c r="I8" t="n">
-        <v>19.34284678238681</v>
+        <v>19.36654443244201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.70645596129224</v>
+        <v>14.70370540700552</v>
       </c>
       <c r="C9" t="n">
-        <v>25.22120329728387</v>
+        <v>25.13872621361425</v>
       </c>
       <c r="D9" t="n">
-        <v>23.97672528021799</v>
+        <v>23.89798996031815</v>
       </c>
       <c r="E9" t="n">
-        <v>24.00608279612746</v>
+        <v>23.93568445843095</v>
       </c>
       <c r="F9" t="n">
-        <v>23.97672528021799</v>
+        <v>23.89798996031815</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43163178863184</v>
+        <v>19.89213711205806</v>
       </c>
       <c r="H9" t="n">
-        <v>21.38578734474979</v>
+        <v>21.33820974984896</v>
       </c>
       <c r="I9" t="n">
-        <v>19.3727066581523</v>
+        <v>19.34284678238681</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.73039107767457</v>
+        <v>14.70645596129224</v>
       </c>
       <c r="C10" t="n">
-        <v>25.20210901953953</v>
+        <v>25.22120329728387</v>
       </c>
       <c r="D10" t="n">
-        <v>23.9276785134256</v>
+        <v>23.97672528021799</v>
       </c>
       <c r="E10" t="n">
-        <v>23.96820158746972</v>
+        <v>24.00608279612746</v>
       </c>
       <c r="F10" t="n">
-        <v>23.92773447901832</v>
+        <v>23.97672528021799</v>
       </c>
       <c r="G10" t="n">
-        <v>17.44052075593926</v>
+        <v>19.91613739335864</v>
       </c>
       <c r="H10" t="n">
-        <v>21.3767082833361</v>
+        <v>21.38578734474979</v>
       </c>
       <c r="I10" t="n">
-        <v>19.36666719218725</v>
+        <v>19.3727066581523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.73039107767457</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.20210901953953</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.9276785134256</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.96820158746972</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.92773447901832</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19.91553405538498</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.3767082833361</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.36666719218725</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.71580268507553</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>25.17514399040207</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>23.89487314980026</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>23.9454581999525</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>23.89487314980026</v>
       </c>
-      <c r="G11" t="n">
-        <v>17.42731167786621</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>19.89695653111535</v>
+      </c>
+      <c r="H12" t="n">
         <v>21.33780149540972</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>19.34163859029164</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.71421138657264</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.20525248192141</v>
-      </c>
-      <c r="D12" t="n">
-        <v>23.95315302671456</v>
-      </c>
-      <c r="E12" t="n">
-        <v>23.97907315216041</v>
-      </c>
-      <c r="F12" t="n">
-        <v>23.95316252681573</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17.43075708111736</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21.38292526454105</v>
-      </c>
-      <c r="I12" t="n">
-        <v>19.37099817942837</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10.49104109534876</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9.238941640141913</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.264861765587767</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9.238951140243092</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.716545694544717</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.668713877968411</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.656786792855726</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3207121115623582</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7280881925551178</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6703989778805451</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6704104357310381</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6703989778805451</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4208202998755756</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5243890826154975</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.326035579185085</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3201127591430587</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7279649969722922</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6648254435594277</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6647636163049638</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6648254435594277</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4103136704134001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5163926420101711</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3229702955601536</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3211308582680474</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7327888759552078</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6631970578738801</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6712284505093223</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6631970578738801</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4171601198087885</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5227507317818927</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3298095347844009</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3214695996695074</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7341578641904627</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6707113905726916</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6627351688601465</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6707124752183321</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4173035615090473</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.520705663102507</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3305002571737215</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3199028370693013</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.728038719264667</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6646971415122794</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6598210029211972</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6646971415122794</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4187837424339839</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5181224186317352</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3236839841850985</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3195548916660453</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.729359497838724</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6586765699967995</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.668740693943111</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6586801367568185</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4109391922375702</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5256887688000674</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3292152776038774</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3190089866090859</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7215106411412672</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6606412562315463</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6648171234816327</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6606412562315463</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4096092891564449</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5185017411249007</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3329453301840075</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.32040750890558</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7292594296375962</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6632558727444429</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6685846868241263</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6632558727444429</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4091132002050584</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5185657153197634</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3229684062160806</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3206316688836368</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.730942884319029</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6628792425298751</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6621937700518314</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6628835973620031</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4099271642368693</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5295301186066681</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3375957325316741</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3206813493752537</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7275596182148285</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6685840919475486</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6711941924947941</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6685840919475486</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4166267005924738</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5256859597575203</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3220096073760682</v>
       </c>
     </row>
   </sheetData>
